--- a/500all/speech_level/speeches_CHRG-114hhrg20871.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20871.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Weber. The Subcommittee on Energy will come to order.    And without objection, the Chair is authorized to declare recesses of the Subcommittee at any time.    And we want to welcome you to today's hearing entitled ``An Overview of Fusion Energy Science.'' I recognize myself for five minutes.    Today, we will hear from a panel of experts on the status of fusion energy science and learn about what can be done to advance this research and technology looking forward. We have two DOE national labs represented here today, as well as the ITER Organization. These experts represent the world's efforts to advance fusion energy science.    The Science Committee has bipartisan interest in fusion energy research and development, and we look forward to hearing from our witnesses today about the future of this very, very exciting research.    Fusion energy science is groundbreaking because researchers are working towards a goal that seems actually beyond reach: to create a star on Earth, to contain it, and control it to the point that we can convert the immense heat into electricity. Fusion clearly is high-risk yet high-reward research and development.    One of the Energy Subcommittee's key responsibilities is to maintain oversight of the research activities within the Office of Science. As the authorizing committee, we must also consider the prospects of future research investments.    The DOE's current budget request for fiscal year 2017 is approximately $398 million, a proposed cut from fiscal year 2016-enacted levels at $438 million.    Funding for fusion energy science has been on a downward trend over the past few years. This sends a signal of uncertainty to the fusion research community of America's commitment to lead in this science. Congress must decide how to effectively invest taxpayer dollars in basic research that provides the scientific foundation for technologies that today might seem impossible.    Today, we will hear testimony from Dr. Stewart Prager, Director of the Princeton Plasma Physics Laboratory, which is the nation's preeminent lab in fusion science. Under his leadership, Princeton's recent upgrade to its spherical tokamak--I keep wanting to say tomahawk, and I know that's not right--tokamak fusion reactor was completed on time and on budget. Dr. Prager, can you teach Congress how to do that with other programs?    I look forward to discussing with Dr. Prager what opportunities exist for the United States to play a larger role in fusion energy research and development.    I also look forward to hearing from Dr. Scott Hsu--am I pronouncing that right, Dr. Hsu--of Los Alamos National Laboratory. Dr. Hsu's work is a great example of how our experts responsible for maintaining the nation's nuclear weapons stockpile can apply their knowledge for an alternate use.    Of course, we're all interested to get a status update on--is it ITER or ITER? ITER, okay. With the complexity of a multinational collaboration like ITER, this project has faced more challenges than most. The Department of Energy will release its own assessment of this project in early May.    Fortunately, today, we have the opportunity to hear from the Director General of the ITER project directly, Dr. Bernard--is it Bigot?</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Bigot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Bigot. Certainly.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412276</t>
   </si>
   <si>
-    <t>Alan Grayson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grayson. Thank you, Mr. Chairman.    I welcome this distinguished panel of witnesses here today to discuss a topic that is of critical importance to the future of our nation and in fact the entire world.    Fusion energy has the potential to provide a practically unlimited supply of safe, reliable, clean energy to us all. While we've yet to achieve a viable fusion reactor, I believe there's many paths that we have to do so. I also don't believe that we're doing nearly enough to ensure that we're pursuing the most promising approaches to achieve this goal quickly and effectively as possible.    Fusion energy can be an enormous global boon to every living human being, and it's going to happen. Whether it happens five years from now or 50 years from now depends on the decisions that we make and the work that you do.    That's why, while I appreciate the participation of both the ITER Director General and the Director of the DOE's only national laboratory dedicated to advancing fusion energy, I'm also particularly pleased that we have Dr. Hsu here on the panel this morning. He's the recipient of the largest award in the recently established ARPA-E program that's examining the potential for alternative innovative fusion energy concepts, this one called magnetized target fusion, which may achieve net energy production far sooner and with much lower capital costs than conventional existing approaches. I also look forward to hearing Dr. Hsu's thoughts on how the Department of Energy can better support and assess the viability more generally of a breakthrough approaches like this.    And I look forward to learning more about the progress that ITER has made under Dr. Bigot's leadership to address previously identified management deficiencies and to establish a more reliable path forward for the project.    And finally, I look forward to Dr. Prager's views on how we can and should regain or maintain U.S. leadership in fusion energy development moving forward.    I think that this panel today goes right to the heart of why we do the work we do in research in America through the U.S. Government and otherwise. It's going to happen. Sooner or later mankind will definitely, without any doubt, establish a means to generate fusion energy and meet our energy needs this way. The question is it's going to happen during our lifetimes and our generation or the next generation or the one after that. I prefer to see it happen in my generation, and I'll know that when that does happen, I will feel very proud that we sat here today, learned how to make that happen, and then did what we needed to do to go ahead and to deliver this breakthrough energy source to all mankind.    I yield back.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman.    And I appreciate both your opening statement and the Ranking Member's longstanding interest in fusion energy. And I tend to think he's correct; I hope it happens sooner rather than later.    Today, we will hear about the status of fusion energy research and development and the prospects of future scientific discovery in fusion energy. The basic idea of fusion energy is to create the equivalent of the power source of a star here on Earth. The same nuclear reactions that occur in a star would be recreated and controlled within a fusion reactor. The heat from these reactions would ultimately be converted into renewable and reliable electricity.    It has captured the imagination of scientists and engineers for over half-a-century. At the Princeton Plasma Physics Laboratory, the National Spherical Torus Experiment enables scientists from across the country to carry out experiments in cutting-edge fusion research. Someday, the results of this research may provide the scientific foundation for producing power through fusion.    Other DOE labs also support fusion research. At Los Alamos National Laboratory, our nuclear weapons researchers apply their expertise to the development of innovation--innovative fusion concepts.    The ultimate goal in fusion energy science is to provide a sustainable, renewable, zero-emissions energy source. We cannot say when fusion will be a viable part of our energy portfolio, but we should support this critical science that could benefit future generations.    One major step toward achieving this goal is ITER. The ITER project is a multinational collaborative effort to build the world's largest tokamak-type fusion reactor. The federal government should invest in long-term challenging science projects such as this, which will ensure America remains a world leader in innovation.    Today, we will hear from the Director General of ITER, who will provide an update on the project's advances and challenges.    Basic research, such as fusion energy science, provides the underpinnings for groundbreaking technology. This type of energy R&amp;D is still in its early stages and requires commitment and leadership. Unfortunately, the President has not provided the leadership that is necessary and has repeatedly cut funding for fusion science. Despite the President's promises to support clean energy R&amp;D, his lack of support for fusion energy is more than disappointing.    Fusion energy is the type of technology that could someday change the way we think about energy. To maintain our competitive advantage, we must continue to support the basic research that will lead to next-generation energy technologies.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -100,18 +88,12 @@
     <t xml:space="preserve">    Dr. Bigot. Thank you very much. Thank you, Chairman Weber, Ranking Member Grayson, and distinguished--sorry. I would like also to recognize the full committee Chairman Smith, which was there a few minutes ago.    I'm grateful and deeply honored for this opportunity to present to you the status of progress on the ITER project. May I have the first slide?    [Slide.]    So you see on this slide the worksite, okay, we have something old, which is the steel frame just in front of you, and just behind is a tokamak pit. It was recorded in last September, and I hope you will be able to view the video we have prepared for you. It will show the real progress and the very short time.    Next slide, please.    [Slide.]    As you know, the project started in 2007, and after nearly ten years--it will be ten years, okay, on next January--it was obvious for many that we have some organizational shortcoming. And is why in a management assessment report, which has been provided by Bill Madia, Dr. Bill Madia in 2013, they point out some specific issue which have to be fixed.    This is why in early August 2014 I was questioned if I could consider to take some responsibility in order to help this project, and after nearly 12 years as a head of Atomic Energy Commission and Alternative Energies Commission in France, I consider such possibility. But I said I want to do it only after we have an agreement of an action plan to be sure that all the ITER members support the recovery plan we needed. And is why we tried to fix, okay, the organization.    We decide on--about effective decision process. We set up Executive Project Board. We gathered together project team in such a way we have an integrated, okay, way to proceed with domestic agencies, seven domestic agencies, which have to provide nearly 90 percent of the value of the project. And I am very pleased to say that we have made very important progress in this field.    The second important point was to freeze the design. When you are to build the machine now, you need to have really a full, okay, finalization of the design. And as you see on the vacuum vessel sector, nine of them are like this. There is many, many piece to assemble. So if you have no finalization of the design, it will delay the delivery. Now on the most important for me is ITER Organization as a design responsible and as the owner of the project must not be a limiting step on any progress for the project.    Also, we develop a large, okay, project culture, nuclear recognition of--it is a statement we have to do, and I am pleased to see that the whole staff now is moving on in this direction. But may be the most important for me is to have a schedule. And when I come in, I discover that, okay, many people don't feel that the schedule wasn't right. And it's why we tried to fix it. I am pleased to say that we have made it okay as of last November. The ITER council agrees on the first years and we set up some milestones.    Next slide, please.    [Slide.]    And so you see some of the milestones, and I don't want to depict it in detail, but really it's impressive how large the progress has been made once we free the energy of the suppliers and have a clear plan.    Next slide, please.    [Slide.]    Some other milestones, as you see.    Next.    [Slide.]    Okay. The most important was for the ITER members to have an assessment of our proposal as a schedule, and is why, we have an independent review panel. And I'm very pleased to say that on time the panel has delivered its report. On last Friday, April 15, we've, as you see, quite a positive assessment on the way we are proceeding.    Next slide.    [Slide.]    Okay. And now we expect that on the basis of this report that we will be able to have a final decision, okay, on 27th of April I expect that the ITER council extraordinary meeting will be able to examine the finding of those independent report and give full guidance on the next steps. And on the next two ITER Council, we will have approval of the baseline in such a way we can move on to First Plasma first and after to DT, deuterium-tritium commissioning.    Next slide.    [Slide.]    Now, okay, why is the U.S. and the many ITER members has to stay in in this larger project is because I do believe it's worth for them to share their capacity. We've limited investment, nine percent, while it would be a 100 percent return due to the full sharing of intellectual property and operational know-how.    Next slide.    [Slide.]    As you know, the United States is largely contributing. with many national labs been involved in. And you imagine that if the U.S. alone or any other ITER members has to contribute all together, it will take much more time.    Next steps, okay.    [Slide.]    Not only we are developing technology for fusion but for many other cutting-edge technologies and superconducting materials under final distribution and all these things.    Next.    [Slide.]    you see here a map which show that many States in the U.S. is involved in the industrialization of this project. Nearly $800 million has been already awarded to the industry. Eighty percent are spent fully in the United States of taxpayer money from the United States and even more, all the partners are requesting the U.S. industry to deliver.    Next.    [Slide.]    Here is a full list of all the potential suppliers in the, okay, last time.    Next. Next. Okay.    [Slide.]    And we do believe it's important that it is agreed to global sense of urgency about the importance of fusion as you depict because whatever we do, we need to provide more energy due to the increase in population and also the increase in the level of livestyle now.    Next.    [Slide.]    Addressing also some environmental concerns, and you see we depict some possibility. And there is not a silver bullet. We have to make some innovation in order to be able to, okay, fulfill the expectation of energy supply. And there's big players are not only the United States but also some others, and we have not able to move on. It will be difficult. And I'm very pleased to tell you that last weeks I was in China, and China is now pushing very hard in order to be able to deliver.    Last slide, I do believe.    [Slide.]    Fusion is really making the case, as you mentioned, clean, safe, abundant, and economic energy potential.    And last slide.    [Slide.]    Just to show you that we are now moving on, okay, with this picture. And if you agree, we could have this video just showing you, okay, how it is now in the last few days on the working site.    Thank you for your attention, and I'm ready to listen to any of your question.</t>
   </si>
   <si>
-    <t>Prager</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Prager. Well, thank you very much for your opening comments--I appreciate them greatly--and also for the opportunity to speak to you today.    I direct the Princeton Plasma Physics Laboratory, PPPL, which is a national laboratory, a DOE national laboratory managed by Princeton University. I've been asked to describe PPPL, its activities and opportunities; and ITER, its importance in relation to the U.S. research program.    PPPL employs a staff of 500. It has the dual mission to develop fusion energy and to advance fundamental plasma science with its many applications. The core of a fusion reactor is a very hot plasma, a gas of electrically charged particles such as a flame or a star. Research at PPPL concentrates on ideas that are innovative, unique, and at the world forefront, key criteria for all U.S. fusion research.    Fusion energy research in Asia and Europe is escalating. For the U.S. to contribute competitively in the face of larger investments elsewhere, we must focus on activities with breakthrough potential. Research at PPPL aims for innovation in four major areas: the development of a fusion concept that might lead to a fusion pilot plant as a next step for U.S. fusion, the challenge of how one surrounds a 100-million-degree plasma by a resilient material, the use of large-scale computing for new insights into fusion systems, and physics research that is key to the success of ITER.    We're currently at a propitious moment at PPPL. We have recently upgraded our major facility and just begun operation of this new experiment, the National Spherical Torus Experiment-Upgrade, NSTX-U. It is a DOE-user facility with 350 researchers from 60 institutions. The experiment cuts across all of the four topics just mentioned. It is a design that could lead to a reduced-size fusion pilot plant, a facility that would demonstrate net electricity production from fusion. NSTX will tell us whether this exciting step is possible. To do so it will push the frontier of our understanding of fusion plasmas.    We are also developing a novel solution to the challenge of the material that faces the hot plasma. Most of the world is investigating solid metals. A complementary approach is to surround the plasma by a liquid metal. Liquids are not damaged by the hot plasma. This offers a breakthrough solution to a major challenge. Will it work? We aim to find out through research that combines plasma physics with material science.    Fusion today is being transformed by supercomputing. We can now solve the equations that describe fusion plasmas as never before. PPPL has developed complex computer codes that are generating innovations in fusion systems. All these activities yield key understanding to help guide the future of ITER.    Looking to the future, opportunities abound for new world-leading major initiatives in the United States and the PPPL. PPPL is an underutilized resource for the Nation. The physical infrastructure includes capabilities that are unexploited, but more importantly, the staff of PPPL and U.S. fusion labs in general has broad world-class expertise and ideas that are not being tapped fully. We can do much more.    I will mention three exciting paths for PPPL and the United States. First, if experimental results prove favorable over the next decade, the United States could possibly move to preparations for a fusion pilot plant, a transformational step.    Second, with the revolutionary advance in computing power, we are now optimizing the fusion system in ways that were nearly inconceivable 20 years ago. With significant reactor advantages, PPPL aspires to experimentally test such modern designs.    Third, if current research and liquid materials proves favorable, we could move to a definitive integrated test of that concept.    And PPPL aims, as the national lab for fusion, to coordinate the U.S. research team on ITER following a model we are developing for a U.S. team that's collaborating on a major facility in Germany.    This brings me to the importance of ITER. ITER will be the first experiment to demonstrate and study a burning plasma, a fusion plasma that is self-sustaining, kept hot by the energy from fusion. A burning plasma is an essential gateway to commercial fusion. ITER is the path to this crucial goal.    ITER will also test key technologies and generate 500 million watts of thermal fusion power. ITER will be a landmark experiment in science and energy of the 21st century. It will be the focus of the world fusion program, complemented by strong domestic research in each participating nature--nation.    It is imperative that the United States maintain active participation in ITER and a strong domestic research program. These two components are strongly intertwined. Without a strong domestic program, we will not be able to extract information from ITER, and a domestic program is needed to solve the remaining challenges that ITER is not designed to solve.    The U.S. fusion program consists of broad research at universities and national laboratories and three major tokamak facilities. The three major facilities are General Atomics, MIT, and Princeton, form a triad of complementary capabilities that have made seminal contributions. The Oak Ridge, Livermore, Los Alamos, and other national labs also make key contributions.    The university research community in the United States provides foundational and innovative contributions. Research at universities spans the full range of fusion challenges carried out through experiments on campus and through participation at user facilities. There's a very strong need to reinvigorate U.S. university research and in fusion energy, which has suffered losses in recent years.    The opportunities for the United States to accelerate the pace to fusion energy are enormous. This would strongly benefit the United States as well as the world.    Thank you very much for the opportunity to provide an opening statement.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Dr. Prager.    I now recognize Dr. Hsu for five minutes.</t>
   </si>
   <si>
-    <t>Hsu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hsu. Chairman Weber, Ranking Member Grayson, Members of the Committee, thank you for your opening remarks, and also thank you very much for the opportunity to testify. I thank the Committee for its longstanding support of fusion energy and plasma physics research in this country.    I have been asked to describe the status of DOE support for innovative fusion energy concept development and to provide recommendations. I am pleased that the committee is considering these topics.    I also ask that my written testimony be entered into the record.</t>
   </si>
   <si>
@@ -283,9 +265,6 @@
     <t>412614</t>
   </si>
   <si>
-    <t>Stephen Knight</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair.    So I'm just going to go down the kind of time frame here and who's involved. We have seven members involved, and we have about a 30-year process of where we started on this and now we're talking about another--maybe a ten-year process before we get to a--kind of a working model for lack of a better term here.    In every situation when we talk about a long-term project, we're always talking about cost, we're always talking about who's involved and maybe if we need to get more money, then we have to look at those members, or has anyone talked about bringing in other countries, other members into this agreement? Yes, sir.</t>
   </si>
   <si>
@@ -325,9 +304,6 @@
     <t>412600</t>
   </si>
   <si>
-    <t>Katherine M. Clark</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chair, and thank you to the panelists for being here. And I understand that burning plasma science is just one of the areas that we have to address if we really want to deliver on fusion's promise of clean--as a clean energy source in a meaningful timescale as we look at climate change and the effects that it is having.    What--this is really a follow-up on Representative Grayson's question, but what does the United States have to do to establish leadership and accelerate the progress in plasma phasing materials research or in simulation and modeling of plasmas? For anyone.</t>
   </si>
   <si>
@@ -358,9 +334,6 @@
     <t>412422</t>
   </si>
   <si>
-    <t>Randy Hultgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you, Chairman. Thank you all so much for being here. This is an important discussion for us to be having. Fusion energy certainly is a very important research area that has the potential to completely transform our energy sector. It also is a massive undertaking that is emblematic of the internationalization of major research facilities. Our scientific communities have to work together because we can no longer just go it alone and expect to get anything done.    Dr. Bigot, I wonder if I could address my first question to you. First, I want to say that I really appreciate the work that you're doing, and from all that I've heard, the ITER project seems to be in a much better place than it has been in the past, and I think much of that is because of your leadership.    One question I'd like to ask you, and I hope you can be candid so that we can help to make America a better partner, I wanted to ask what the biggest hurdles that you face or that others face working with the United States. What are the first questions you ask yourself when we say that we're going to deliver on a project that is five or ten or fifteen years down the road?</t>
   </si>
   <si>
@@ -388,9 +361,6 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Mr. Chairman. Thank you for holding this hearing. It's very important.    As I'm sure everyone has talked about the--how critical it could be to--you know, producing energy in so many areas if we can figure this out.    I visited the NIF--I visited NIF at Lawrence Livermore a few years ago, but I'm going to leave that to Ms. Lofgren to talk a little bit more about that. I'm sure she has some questions and comments about that. But I want to look at what we've been doing over the past few years looking at promising alternative approaches to achieving a viable fusion reactor. They have emerged from some small and midsize startups, as well as academia and our national labs.    And Dr. Hsu, you know well ARPA-E recently established a three-year program to further explore the potential for some of these concepts, particularly on an approach called magnetized target fusion. But like all ARPA-E initiatives, this program is temporary. It does not cover the full range of emerging alternatives that currently receive no federal support.    So I want to ask Dr. Hsu and Dr. Prager, does the Office of Science's current fusion research program have the flexibility to shift resources to promising new approaches if they don't align with the conventional tokamak research pathway? And if not, what can we do to provide the office with the flexibility?</t>
   </si>
   <si>
@@ -412,9 +382,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman.    I'd just like to get some numbers straight here. So over the last ten years we have spent $900 million on this project, is that right?</t>
   </si>
   <si>
@@ -607,9 +574,6 @@
     <t xml:space="preserve">    Chairman Weber. I think the gentleman is yielding back. So I thank the gentleman, and we're going to move to Mr. Foster of Illinois.</t>
   </si>
   <si>
-    <t>Foster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Foster. Well, thank you. And thank you, Mr. Chairman, for allowing me to sit on this committee hearing.    I guess my first question is, assuming that ITER succeeds and that sometime around 2025, 2030, would succeed at everything including DT--the DT program, what are the--going to be the remaining unsolved problems A) to be able to design a production which--you know, something that is an energy plant, you know, what's on the list of things that will be unsolved problems?    And secondly, what will be needed to understand what the levelized cost of electricity from a tokamak of those dimensions might be? You know, those are the two things that have to succeed to make fusion succeed as--succeed scientifically and engineering-wise, and it has to succeed economically. And so what will be the unsolved problems in 2025 or 2030, assuming everything goes nominally? I'm happy to have--you two can split it.</t>
   </si>
   <si>
@@ -664,9 +628,6 @@
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman.    Dr. Bigot, you mentioned in your testimony that not only is ITER building a first-of-its-kind reactor but the organizational structure is first of kind--first of its kind. If you could go back and restructure the organization, would you do anything different, and if so, what would it be?</t>
   </si>
   <si>
@@ -710,9 +671,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. I thank the gentleman.    And the gentlelady from California is recognized.</t>
-  </si>
-  <si>
-    <t>Lofgren</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Lofgren. Well, thank you very much. This is really important hearing, I think, and I'm hoping it's not the last hearing that we have on this subject.    You know, I remember when I first started working on fusion issues that people who were looking at magnetic versus IFE, it was like a religion. And I think we've actually moved past that now where people are seeing it's a--you know, we need to have a broad examination of the entire field, and I'm certainly in that spot. So I hope that my questions about the NIF will not be misconstrued as being only on the IFE pursuit.    But, as you know, Dr. Hsu, we've talked before about the National Ignition Facility, which obviously is a critical facility for this national Stockpile Stewardship Program, but it's also an important element of our science community. The National Academy report in 2013 outlined some efforts that might accelerate progress, including additional investments, better coordination--you've read the report. I won't recite everything.    I'm not--I keep mentioning this, and when the Department of Energy folks come, they cite things that the report didn't say, and I'm working with Dr. Moniz to have clarity on that.    But given the recommendations that they made, the National Academy made in terms of pursuing expanding NIF to include the direct drive and alternative modes of ignition, crafting and coordinating the joint plan for IFE research, Scientific Advisory Committee, and the like, can you comment whether that would actually improve the situation at--with IFE at the NIF in particular? Would it enhance the billions of dollars investment we've already made?</t>
@@ -1264,11 +1222,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1288,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1316,11 +1270,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1342,11 +1294,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1366,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1394,11 +1342,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1418,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1446,11 +1390,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1470,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1496,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1524,11 +1462,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1548,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1576,11 +1510,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1600,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1628,11 +1558,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1652,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1680,11 +1606,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1706,11 +1630,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1730,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1758,11 +1678,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1782,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1810,11 +1726,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1834,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1862,11 +1774,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1886,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1914,11 +1822,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1938,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1966,11 +1870,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1990,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2018,11 +1918,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2042,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2070,11 +1966,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2094,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2122,11 +2014,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2146,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2174,11 +2062,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2198,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2226,11 +2110,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2250,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2278,11 +2158,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2302,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2330,11 +2206,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2354,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2382,11 +2254,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2406,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2434,11 +2302,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2458,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2486,11 +2350,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2510,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2538,11 +2398,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2562,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2588,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2614,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2640,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2666,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2692,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2718,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2744,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2770,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2796,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2822,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2848,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2874,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2900,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2926,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2952,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2978,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3006,11 +2830,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3030,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
-      </c>
-      <c r="G70" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3056,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3082,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
-      </c>
-      <c r="G72" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3108,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3134,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3160,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3186,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s">
+        <v>82</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
         <v>89</v>
-      </c>
-      <c r="H76" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3212,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3238,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3264,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3290,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3318,11 +3118,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3342,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>102</v>
-      </c>
-      <c r="G82" t="s">
-        <v>103</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3368,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3394,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>102</v>
-      </c>
-      <c r="G84" t="s">
-        <v>103</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3420,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3446,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>102</v>
-      </c>
-      <c r="G86" t="s">
-        <v>103</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3472,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3498,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
+        <v>95</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
         <v>102</v>
-      </c>
-      <c r="G88" t="s">
-        <v>103</v>
-      </c>
-      <c r="H88" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3524,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>102</v>
-      </c>
-      <c r="G89" t="s">
+        <v>95</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
         <v>103</v>
-      </c>
-      <c r="H89" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3552,11 +3334,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3576,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
-      </c>
-      <c r="G91" t="s">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3602,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3628,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
-      </c>
-      <c r="G93" t="s">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3654,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3680,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
-      </c>
-      <c r="G95" t="s">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3706,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3732,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
-      </c>
-      <c r="G97" t="s">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3760,11 +3526,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3784,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>123</v>
-      </c>
-      <c r="G99" t="s">
-        <v>124</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3810,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3836,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>123</v>
-      </c>
-      <c r="G101" t="s">
-        <v>124</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3862,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3888,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>123</v>
-      </c>
-      <c r="G103" t="s">
-        <v>124</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3916,11 +3670,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3940,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>131</v>
-      </c>
-      <c r="G105" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3966,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3992,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>131</v>
-      </c>
-      <c r="G107" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4018,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4044,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>131</v>
-      </c>
-      <c r="G109" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4070,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4096,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>131</v>
-      </c>
-      <c r="G111" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4122,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4148,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>131</v>
-      </c>
-      <c r="G113" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4174,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4200,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>131</v>
-      </c>
-      <c r="G115" t="s">
+        <v>121</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
         <v>132</v>
-      </c>
-      <c r="H115" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4226,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4252,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>131</v>
-      </c>
-      <c r="G117" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4278,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4304,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>131</v>
-      </c>
-      <c r="G119" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4330,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4356,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4382,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>131</v>
-      </c>
-      <c r="G122" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4408,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4434,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>131</v>
-      </c>
-      <c r="G124" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4460,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4486,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>131</v>
-      </c>
-      <c r="G126" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4512,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4538,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>131</v>
-      </c>
-      <c r="G128" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4564,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4590,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>131</v>
-      </c>
-      <c r="G130" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4616,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4642,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>131</v>
-      </c>
-      <c r="G132" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4668,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4694,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>131</v>
-      </c>
-      <c r="G134" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4720,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4746,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>131</v>
-      </c>
-      <c r="G136" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4772,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4798,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>131</v>
-      </c>
-      <c r="G138" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4824,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4850,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>131</v>
-      </c>
-      <c r="G140" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4876,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4902,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>131</v>
-      </c>
-      <c r="G142" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4928,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4954,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>131</v>
-      </c>
-      <c r="G144" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4980,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5006,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>131</v>
-      </c>
-      <c r="G146" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5032,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5058,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>131</v>
-      </c>
-      <c r="G148" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5084,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5110,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>131</v>
-      </c>
-      <c r="G150" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5136,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5162,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>131</v>
-      </c>
-      <c r="G152" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5188,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5214,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>131</v>
-      </c>
-      <c r="G154" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5240,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5266,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>131</v>
-      </c>
-      <c r="G156" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5292,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5318,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>131</v>
-      </c>
-      <c r="G158" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5344,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5370,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>131</v>
-      </c>
-      <c r="G160" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5396,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5422,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>131</v>
-      </c>
-      <c r="G162" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5448,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5474,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>131</v>
-      </c>
-      <c r="G164" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5500,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5526,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>131</v>
-      </c>
-      <c r="G166" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5552,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5578,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>131</v>
-      </c>
-      <c r="G168" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5604,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5632,11 +5254,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5656,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>131</v>
-      </c>
-      <c r="G171" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5684,11 +5302,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5708,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5734,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5760,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5786,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5812,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5838,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5864,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5890,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5916,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5942,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5968,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5994,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6020,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6046,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6072,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6098,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6124,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
-      </c>
-      <c r="G189" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6152,11 +5734,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6176,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>215</v>
-      </c>
-      <c r="G191" t="s">
-        <v>216</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6202,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
-      </c>
-      <c r="G192" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6228,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>215</v>
-      </c>
-      <c r="G193" t="s">
-        <v>216</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6254,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
-      </c>
-      <c r="G194" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6280,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>215</v>
-      </c>
-      <c r="G195" t="s">
-        <v>216</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6306,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
-      </c>
-      <c r="G196" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6332,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>215</v>
-      </c>
-      <c r="G197" t="s">
-        <v>216</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6358,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
-      </c>
-      <c r="G198" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6384,13 +5948,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>215</v>
-      </c>
-      <c r="G199" t="s">
-        <v>216</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6410,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6436,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>215</v>
-      </c>
-      <c r="G201" t="s">
-        <v>216</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6462,13 +6020,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6488,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>215</v>
-      </c>
-      <c r="G203" t="s">
-        <v>216</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6514,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6540,13 +6092,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>215</v>
-      </c>
-      <c r="G205" t="s">
-        <v>216</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6568,11 +6118,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6592,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>14</v>
-      </c>
-      <c r="G207" t="s">
-        <v>232</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6618,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
-      </c>
-      <c r="G208" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6644,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>14</v>
-      </c>
-      <c r="G209" t="s">
-        <v>232</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6672,11 +6214,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6696,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>19</v>
-      </c>
-      <c r="G211" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6722,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>14</v>
-      </c>
-      <c r="G212" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6748,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>19</v>
-      </c>
-      <c r="G213" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6774,13 +6308,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>14</v>
-      </c>
-      <c r="G214" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6800,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>19</v>
-      </c>
-      <c r="G215" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6826,13 +6356,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>14</v>
-      </c>
-      <c r="G216" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6852,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>19</v>
-      </c>
-      <c r="G217" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6878,13 +6404,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>14</v>
-      </c>
-      <c r="G218" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6906,11 +6430,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6930,13 +6452,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
-      </c>
-      <c r="G220" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6958,11 +6478,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6982,13 +6500,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
-      </c>
-      <c r="G222" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7010,11 +6526,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>12</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7034,13 +6548,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
-      </c>
-      <c r="G224" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7062,11 +6574,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7086,13 +6596,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>19</v>
-      </c>
-      <c r="G226" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7112,13 +6620,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>14</v>
-      </c>
-      <c r="G227" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7138,13 +6644,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>19</v>
-      </c>
-      <c r="G228" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7164,13 +6668,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>14</v>
-      </c>
-      <c r="G229" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7190,13 +6692,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>19</v>
-      </c>
-      <c r="G230" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7218,11 +6718,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7242,13 +6740,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>14</v>
-      </c>
-      <c r="G232" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7268,13 +6764,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
-      </c>
-      <c r="G233" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7294,13 +6788,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>14</v>
-      </c>
-      <c r="G234" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7320,13 +6812,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
-      </c>
-      <c r="G235" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7346,13 +6836,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>14</v>
-      </c>
-      <c r="G236" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7372,13 +6860,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
-      </c>
-      <c r="G237" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7398,13 +6884,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>14</v>
-      </c>
-      <c r="G238" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7424,13 +6908,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>14</v>
-      </c>
-      <c r="G239" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7450,13 +6932,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
-      </c>
-      <c r="G240" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7476,13 +6956,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>14</v>
-      </c>
-      <c r="G241" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7502,13 +6980,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>14</v>
-      </c>
-      <c r="G242" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7528,13 +7004,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>14</v>
-      </c>
-      <c r="G243" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7556,11 +7030,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>12</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7580,13 +7052,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
-      </c>
-      <c r="G245" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7608,11 +7078,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7632,13 +7100,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G247" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7660,11 +7126,9 @@
       <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
-        <v>12</v>
-      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7684,13 +7148,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>14</v>
-      </c>
-      <c r="G249" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7710,13 +7172,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>14</v>
-      </c>
-      <c r="G250" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7738,11 +7198,9 @@
       <c r="F251" t="s">
         <v>11</v>
       </c>
-      <c r="G251" t="s">
-        <v>12</v>
-      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7762,13 +7220,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G252" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7788,13 +7244,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>14</v>
-      </c>
-      <c r="G253" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7814,13 +7268,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>14</v>
-      </c>
-      <c r="G254" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7840,13 +7292,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>14</v>
-      </c>
-      <c r="G255" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7866,13 +7316,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>19</v>
-      </c>
-      <c r="G256" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7892,13 +7340,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>14</v>
-      </c>
-      <c r="G257" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7918,13 +7364,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>14</v>
-      </c>
-      <c r="G258" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7944,13 +7388,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>14</v>
-      </c>
-      <c r="G259" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7972,11 +7414,9 @@
       <c r="F260" t="s">
         <v>11</v>
       </c>
-      <c r="G260" t="s">
-        <v>12</v>
-      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7996,13 +7436,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>14</v>
-      </c>
-      <c r="G261" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8022,13 +7460,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>14</v>
-      </c>
-      <c r="G262" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8048,13 +7484,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" t="s">
-        <v>197</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8076,11 +7510,9 @@
       <c r="F264" t="s">
         <v>11</v>
       </c>
-      <c r="G264" t="s">
-        <v>12</v>
-      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
